--- a/Solina/Production/Input/GHI_2024-02-12.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-12.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2994.17</v>
+        <v>2994.05</v>
       </c>
       <c r="H2">
-        <v>6264.93</v>
+        <v>6264.4</v>
       </c>
       <c r="I2">
-        <v>734.24</v>
+        <v>734.29</v>
       </c>
       <c r="J2">
-        <v>1384.36</v>
+        <v>775.17</v>
       </c>
       <c r="K2">
-        <v>262.79</v>
+        <v>19.89</v>
       </c>
       <c r="L2">
-        <v>1272.73</v>
+        <v>772.89</v>
       </c>
     </row>
   </sheetData>
@@ -872,19 +872,19 @@
         <v>4.25</v>
       </c>
       <c r="I9">
-        <v>34.74</v>
+        <v>34.75</v>
       </c>
       <c r="J9">
         <v>5.7</v>
       </c>
       <c r="K9">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.08</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -913,19 +913,19 @@
         <v>98.44</v>
       </c>
       <c r="I10">
-        <v>411.91</v>
+        <v>411.97</v>
       </c>
       <c r="J10">
         <v>46.58</v>
       </c>
       <c r="K10">
-        <v>47.99</v>
+        <v>49.32</v>
       </c>
       <c r="L10">
-        <v>5.3</v>
+        <v>19.89</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>47.05</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>243</v>
+        <v>243.02</v>
       </c>
       <c r="I11">
-        <v>630.58</v>
+        <v>630.63</v>
       </c>
       <c r="J11">
         <v>71.31</v>
       </c>
       <c r="K11">
-        <v>124.63</v>
+        <v>60.75</v>
       </c>
       <c r="L11">
-        <v>36.18</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>114.09</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>368.62</v>
+        <v>368.65</v>
       </c>
       <c r="I12">
-        <v>733.05</v>
+        <v>733.13</v>
       </c>
       <c r="J12">
-        <v>85.48</v>
+        <v>85.47</v>
       </c>
       <c r="K12">
-        <v>198.52</v>
+        <v>92.16</v>
       </c>
       <c r="L12">
-        <v>70.64</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>170.42</v>
+        <v>92.16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>454.74</v>
+        <v>454.76</v>
       </c>
       <c r="I13">
-        <v>784.1900000000001</v>
+        <v>784.24</v>
       </c>
       <c r="J13">
         <v>93.38</v>
       </c>
       <c r="K13">
-        <v>244.62</v>
+        <v>113.69</v>
       </c>
       <c r="L13">
-        <v>75.61</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>209.22</v>
+        <v>113.69</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>490.85</v>
+        <v>490.84</v>
       </c>
       <c r="I14">
-        <v>802.7</v>
+        <v>802.66</v>
       </c>
       <c r="J14">
-        <v>96.38</v>
+        <v>96.39</v>
       </c>
       <c r="K14">
-        <v>243.12</v>
+        <v>122.71</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>222.63</v>
+        <v>122.71</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>472.92</v>
+        <v>472.89</v>
       </c>
       <c r="I15">
-        <v>793.78</v>
+        <v>793.7</v>
       </c>
       <c r="J15">
-        <v>94.89</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="K15">
-        <v>212.79</v>
+        <v>118.22</v>
       </c>
       <c r="L15">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>200.72</v>
+        <v>118.22</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>402.92</v>
+        <v>402.88</v>
       </c>
       <c r="I16">
-        <v>754.96</v>
+        <v>754.83</v>
       </c>
       <c r="J16">
-        <v>88.73</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="K16">
-        <v>161.55</v>
+        <v>100.72</v>
       </c>
       <c r="L16">
-        <v>9.26</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>157.51</v>
+        <v>100.72</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>289.05</v>
+        <v>289</v>
       </c>
       <c r="I17">
-        <v>673.53</v>
+        <v>673.36</v>
       </c>
       <c r="J17">
-        <v>76.94</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="K17">
-        <v>100.46</v>
+        <v>72.25</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>100.46</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>147.49</v>
+        <v>147.45</v>
       </c>
       <c r="I18">
-        <v>508.59</v>
+        <v>508.37</v>
       </c>
       <c r="J18">
-        <v>56.72</v>
+        <v>56.73</v>
       </c>
       <c r="K18">
-        <v>43.13</v>
+        <v>36.86</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>43.13</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1279,10 +1279,10 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>21.87</v>
+        <v>21.86</v>
       </c>
       <c r="I19">
-        <v>136.88</v>
+        <v>136.76</v>
       </c>
       <c r="J19">
         <v>18.13</v>
